--- a/SD_ols1.xlsx
+++ b/SD_ols1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -59,28 +59,34 @@
     <t xml:space="preserve">(1)</t>
   </si>
   <si>
-    <t xml:space="preserve">0.201 ***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.028)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.684)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.691)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.677)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.662)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.772)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.660)   </t>
+    <t xml:space="preserve">2.115 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.484)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.904 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3.137)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3.259)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3.234)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.195 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3.096)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3.578)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3.080)   </t>
   </si>
 </sst>
 </file>
@@ -606,8 +612,8 @@
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="n">
-        <v>0.036</v>
+      <c r="B4" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5">
@@ -615,7 +621,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
@@ -623,7 +629,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="10" t="n">
-        <v>0.636</v>
+        <v>1.477</v>
       </c>
     </row>
     <row r="7">
@@ -631,7 +637,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
@@ -639,7 +645,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="12" t="n">
-        <v>-0.701</v>
+        <v>-2.009</v>
       </c>
     </row>
     <row r="9">
@@ -647,15 +653,15 @@
         <v>0</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="14" t="n">
-        <v>0.451</v>
+      <c r="B10" s="14" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="11">
@@ -663,7 +669,7 @@
         <v>0</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12">
@@ -671,7 +677,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="16" t="n">
-        <v>-0.026</v>
+        <v>0.093</v>
       </c>
     </row>
     <row r="13">
@@ -679,7 +685,7 @@
         <v>0</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14">
@@ -687,7 +693,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="18" t="n">
-        <v>1.032</v>
+        <v>0.163</v>
       </c>
     </row>
     <row r="15">
@@ -695,7 +701,7 @@
         <v>0</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16">
@@ -703,7 +709,7 @@
         <v>8</v>
       </c>
       <c r="B16" s="20" t="n">
-        <v>526</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17">
@@ -711,7 +717,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="21" t="n">
-        <v>0.009</v>
+        <v>0.267</v>
       </c>
     </row>
     <row r="18">
@@ -719,7 +725,7 @@
         <v>10</v>
       </c>
       <c r="B18" s="22" t="n">
-        <v>-0.003</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="19">
@@ -727,7 +733,7 @@
         <v>11</v>
       </c>
       <c r="B19" s="23" t="n">
-        <v>0.762</v>
+        <v>1.943</v>
       </c>
     </row>
     <row r="20">
@@ -735,7 +741,7 @@
         <v>12</v>
       </c>
       <c r="B20" s="24" t="n">
-        <v>0.6</v>
+        <v>0.104</v>
       </c>
     </row>
     <row r="21">

--- a/SD_ols1.xlsx
+++ b/SD_ols1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -20,22 +20,100 @@
     <t xml:space="preserve">(Intercept)</t>
   </si>
   <si>
-    <t xml:space="preserve">poly(Fund_GeoHHI, 2)1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poly(Fund_GeoHHI, 2)2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poly(Fund_StageHHI, 2)1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poly(Fund_StageHHI, 2)2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poly(Fund_PIGHHI, 2)1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poly(Fund_PIGHHI, 2)2</t>
+    <t xml:space="preserve">LFund_SD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)1982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)1983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)1984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)1985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)1986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)1987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)1988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)1989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)1990</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)1991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)1992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)1993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)1994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)1995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)1996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)1997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)1998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)1999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)2001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)2002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)2003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)2004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)2005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)2006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)2012</t>
   </si>
   <si>
     <t xml:space="preserve"># observations</t>
@@ -59,41 +137,125 @@
     <t xml:space="preserve">(1)</t>
   </si>
   <si>
-    <t xml:space="preserve">2.115 ***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.484)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.904 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(3.137)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(3.259)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(3.234)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.195 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(3.096)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(3.578)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(3.080)   </t>
+    <t xml:space="preserve">1.830 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.855)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.226 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.042)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.047)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.046)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.418 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.207)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.906)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.896)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.889)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.893)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.874)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.883)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.877)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.872)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.870)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.867)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.861)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.858)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.020 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.859)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.961 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.863)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.790 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.869)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.865)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.881)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.910 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.038 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.882)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.809 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.880 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.909 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.955)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.987 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.936)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.913)   </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="18">
+  <numFmts count="70">
     <numFmt numFmtId="50000" formatCode="0.000"/>
     <numFmt numFmtId="50001" formatCode="0.000"/>
     <numFmt numFmtId="50002" formatCode="0.000"/>
@@ -112,6 +274,58 @@
     <numFmt numFmtId="50015" formatCode="0.000"/>
     <numFmt numFmtId="50016" formatCode="0.000"/>
     <numFmt numFmtId="50017" formatCode="0.000"/>
+    <numFmt numFmtId="50018" formatCode="0.000"/>
+    <numFmt numFmtId="50019" formatCode="0.000"/>
+    <numFmt numFmtId="50020" formatCode="0.000"/>
+    <numFmt numFmtId="50021" formatCode="0.000"/>
+    <numFmt numFmtId="50022" formatCode="0.000"/>
+    <numFmt numFmtId="50023" formatCode="0.000"/>
+    <numFmt numFmtId="50024" formatCode="0.000"/>
+    <numFmt numFmtId="50025" formatCode="0.000"/>
+    <numFmt numFmtId="50026" formatCode="0.000"/>
+    <numFmt numFmtId="50027" formatCode="0.000"/>
+    <numFmt numFmtId="50028" formatCode="0.000"/>
+    <numFmt numFmtId="50029" formatCode="0.000"/>
+    <numFmt numFmtId="50030" formatCode="0.000"/>
+    <numFmt numFmtId="50031" formatCode="0.000"/>
+    <numFmt numFmtId="50032" formatCode="0.000"/>
+    <numFmt numFmtId="50033" formatCode="0.000"/>
+    <numFmt numFmtId="50034" formatCode="0.000"/>
+    <numFmt numFmtId="50035" formatCode="0.000"/>
+    <numFmt numFmtId="50036" formatCode="0.000"/>
+    <numFmt numFmtId="50037" formatCode="0.000"/>
+    <numFmt numFmtId="50038" formatCode="0.000"/>
+    <numFmt numFmtId="50039" formatCode="0.000"/>
+    <numFmt numFmtId="50040" formatCode="0.000"/>
+    <numFmt numFmtId="50041" formatCode="0.000"/>
+    <numFmt numFmtId="50042" formatCode="0.000"/>
+    <numFmt numFmtId="50043" formatCode="0.000"/>
+    <numFmt numFmtId="50044" formatCode="0.000"/>
+    <numFmt numFmtId="50045" formatCode="0.000"/>
+    <numFmt numFmtId="50046" formatCode="0.000"/>
+    <numFmt numFmtId="50047" formatCode="0.000"/>
+    <numFmt numFmtId="50048" formatCode="0.000"/>
+    <numFmt numFmtId="50049" formatCode="0.000"/>
+    <numFmt numFmtId="50050" formatCode="0.000"/>
+    <numFmt numFmtId="50051" formatCode="0.000"/>
+    <numFmt numFmtId="50052" formatCode="0.000"/>
+    <numFmt numFmtId="50053" formatCode="0.000"/>
+    <numFmt numFmtId="50054" formatCode="0.000"/>
+    <numFmt numFmtId="50055" formatCode="0.000"/>
+    <numFmt numFmtId="50056" formatCode="0.000"/>
+    <numFmt numFmtId="50057" formatCode="0.000"/>
+    <numFmt numFmtId="50058" formatCode="0.000"/>
+    <numFmt numFmtId="50059" formatCode="0.000"/>
+    <numFmt numFmtId="50060" formatCode="0.000"/>
+    <numFmt numFmtId="50061" formatCode="0.000"/>
+    <numFmt numFmtId="50062" formatCode="0.000"/>
+    <numFmt numFmtId="50063" formatCode="0.000"/>
+    <numFmt numFmtId="50064" formatCode="0.000"/>
+    <numFmt numFmtId="50065" formatCode="0.000"/>
+    <numFmt numFmtId="50066" formatCode="0.000"/>
+    <numFmt numFmtId="50067" formatCode="0.000"/>
+    <numFmt numFmtId="50068" formatCode="0.000"/>
+    <numFmt numFmtId="50069" formatCode="0.000"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -217,7 +431,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="center" vertical="top"/>
@@ -273,22 +487,178 @@
     <xf numFmtId="50012" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="50013" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="50013" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50014" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50015" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50016" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50017" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50018" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50019" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50020" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50021" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50022" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50023" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50024" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50025" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50026" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50027" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50028" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50029" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50030" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50031" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50032" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50033" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50034" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50035" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50036" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50037" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50038" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50039" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50040" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50041" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50042" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50043" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50044" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50045" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50046" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50047" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50048" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50049" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50050" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50051" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50052" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50053" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50054" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50055" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50056" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50057" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50058" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50059" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50060" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50061" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50062" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50063" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50064" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50065" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="50014" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50015" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50016" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50017" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="50066" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50067" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50068" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50069" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
@@ -589,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2">
@@ -597,7 +967,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3">
@@ -605,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4">
@@ -613,7 +983,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5">
@@ -621,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6">
@@ -629,7 +999,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="10" t="n">
-        <v>1.477</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="7">
@@ -637,7 +1007,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8">
@@ -645,7 +1015,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="12" t="n">
-        <v>-2.009</v>
+        <v>-1.879</v>
       </c>
     </row>
     <row r="9">
@@ -653,15 +1023,15 @@
         <v>0</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="14" t="s">
-        <v>21</v>
+      <c r="B10" s="14" t="n">
+        <v>-1.846</v>
       </c>
     </row>
     <row r="11">
@@ -669,15 +1039,15 @@
         <v>0</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="16" t="n">
-        <v>0.093</v>
+      <c r="B12" s="16" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="13">
@@ -685,7 +1055,7 @@
         <v>0</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14">
@@ -693,7 +1063,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="18" t="n">
-        <v>0.163</v>
+        <v>-1.938</v>
       </c>
     </row>
     <row r="15">
@@ -701,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16">
@@ -709,50 +1079,466 @@
         <v>8</v>
       </c>
       <c r="B16" s="20" t="n">
-        <v>39</v>
+        <v>-1.592</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="21" t="n">
-        <v>0.267</v>
+        <v>0</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B18" s="22" t="n">
-        <v>0.13</v>
+        <v>-1.612</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="24" t="n">
+        <v>-1.62</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="23" t="n">
-        <v>1.943</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="3" t="s">
+      <c r="B22" s="26" t="n">
+        <v>-1.265</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="24" t="n">
-        <v>0.104</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="4" t="s">
+      <c r="B24" s="28" t="n">
+        <v>-1.664</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="4"/>
+      <c r="B26" s="30" t="n">
+        <v>-1.49</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" s="32" t="n">
+        <v>-1.502</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="34" t="n">
+        <v>-1.421</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="36" t="n">
+        <v>-1.554</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="37" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" s="38" t="n">
+        <v>-1.556</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" s="40" t="n">
+        <v>-1.467</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="41" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" s="42" t="n">
+        <v>-1.432</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="43" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" s="44" t="n">
+        <v>-1.478</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="45" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B42" s="46" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" s="47" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44" s="48" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" s="49" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B46" s="50" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="51" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B48" s="52" t="n">
+        <v>-1.689</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" s="53" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B50" s="54" t="n">
+        <v>-1.569</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="55" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B52" s="56" t="n">
+        <v>-1.57</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" s="57" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B54" s="58" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" s="59" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B56" s="60" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57" s="61" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B58" s="62" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59" s="63" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B60" s="64" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" s="65" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B62" s="66" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63" s="67" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B64" s="68" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" s="69" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B66" s="70" t="n">
+        <v>-1.613</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67" s="71" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B68" s="72" t="n">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B69" s="73" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B70" s="74" t="n">
+        <v>0.081</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B71" s="75" t="n">
+        <v>3.115</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B72" s="76" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B73" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A73:B73"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/SD_ols1.xlsx
+++ b/SD_ols1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -20,18 +20,126 @@
     <t xml:space="preserve">(Intercept)</t>
   </si>
   <si>
-    <t xml:space="preserve">Fund_GeoHHI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fund_StageHHI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fund_PIGHHI</t>
+    <t xml:space="preserve">poly(GeoHHI, 2)1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poly(GeoHHI, 2)2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poly(StageHHI, 2)1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poly(StageHHI, 2)2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poly(PIGHHI, 2)1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poly(PIGHHI, 2)2</t>
   </si>
   <si>
     <t xml:space="preserve">Operating_Years</t>
   </si>
   <si>
+    <t xml:space="preserve">Deal_Size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)1981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)1982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)1983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)1984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)1985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)1986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)1987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)1988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)1989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)1990</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)1991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)1992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)1993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)1994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)1995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)1996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)1997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)1998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)1999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)2001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)2002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)2003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)2004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)2005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)2006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)2012</t>
+  </si>
+  <si>
     <t xml:space="preserve"># observations</t>
   </si>
   <si>
@@ -53,19 +161,139 @@
     <t xml:space="preserve">(1)</t>
   </si>
   <si>
-    <t xml:space="preserve">(0.045)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.018)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.036)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.056)</t>
+    <t xml:space="preserve">10.501 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.730 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.399 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.780 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.070 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.002 ** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.937)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(2.053)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(2.161)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(2.389)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(2.297)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(2.711)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(2.245)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.012)</t>
   </si>
   <si>
     <t xml:space="preserve">(0.001)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(2.668)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(2.311)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(2.332)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(2.330)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(2.336)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(2.687)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(2.018)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.996)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.983)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.988)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.949)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.975)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.952)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.942)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.944)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.930)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.925)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.922)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.921)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.932)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.934)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.943)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.935)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.963)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.967)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.993)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(2.008)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(2.139)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(2.097)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(2.048)</t>
   </si>
   <si>
     <t xml:space="preserve">     </t>
@@ -75,7 +303,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="14">
+  <numFmts count="86">
     <numFmt numFmtId="50000" formatCode="0.000"/>
     <numFmt numFmtId="50001" formatCode="0.000"/>
     <numFmt numFmtId="50002" formatCode="0.000"/>
@@ -90,6 +318,78 @@
     <numFmt numFmtId="50011" formatCode="0.000"/>
     <numFmt numFmtId="50012" formatCode="0.000"/>
     <numFmt numFmtId="50013" formatCode="0.000"/>
+    <numFmt numFmtId="50014" formatCode="0.000"/>
+    <numFmt numFmtId="50015" formatCode="0.000"/>
+    <numFmt numFmtId="50016" formatCode="0.000"/>
+    <numFmt numFmtId="50017" formatCode="0.000"/>
+    <numFmt numFmtId="50018" formatCode="0.000"/>
+    <numFmt numFmtId="50019" formatCode="0.000"/>
+    <numFmt numFmtId="50020" formatCode="0.000"/>
+    <numFmt numFmtId="50021" formatCode="0.000"/>
+    <numFmt numFmtId="50022" formatCode="0.000"/>
+    <numFmt numFmtId="50023" formatCode="0.000"/>
+    <numFmt numFmtId="50024" formatCode="0.000"/>
+    <numFmt numFmtId="50025" formatCode="0.000"/>
+    <numFmt numFmtId="50026" formatCode="0.000"/>
+    <numFmt numFmtId="50027" formatCode="0.000"/>
+    <numFmt numFmtId="50028" formatCode="0.000"/>
+    <numFmt numFmtId="50029" formatCode="0.000"/>
+    <numFmt numFmtId="50030" formatCode="0.000"/>
+    <numFmt numFmtId="50031" formatCode="0.000"/>
+    <numFmt numFmtId="50032" formatCode="0.000"/>
+    <numFmt numFmtId="50033" formatCode="0.000"/>
+    <numFmt numFmtId="50034" formatCode="0.000"/>
+    <numFmt numFmtId="50035" formatCode="0.000"/>
+    <numFmt numFmtId="50036" formatCode="0.000"/>
+    <numFmt numFmtId="50037" formatCode="0.000"/>
+    <numFmt numFmtId="50038" formatCode="0.000"/>
+    <numFmt numFmtId="50039" formatCode="0.000"/>
+    <numFmt numFmtId="50040" formatCode="0.000"/>
+    <numFmt numFmtId="50041" formatCode="0.000"/>
+    <numFmt numFmtId="50042" formatCode="0.000"/>
+    <numFmt numFmtId="50043" formatCode="0.000"/>
+    <numFmt numFmtId="50044" formatCode="0.000"/>
+    <numFmt numFmtId="50045" formatCode="0.000"/>
+    <numFmt numFmtId="50046" formatCode="0.000"/>
+    <numFmt numFmtId="50047" formatCode="0.000"/>
+    <numFmt numFmtId="50048" formatCode="0.000"/>
+    <numFmt numFmtId="50049" formatCode="0.000"/>
+    <numFmt numFmtId="50050" formatCode="0.000"/>
+    <numFmt numFmtId="50051" formatCode="0.000"/>
+    <numFmt numFmtId="50052" formatCode="0.000"/>
+    <numFmt numFmtId="50053" formatCode="0.000"/>
+    <numFmt numFmtId="50054" formatCode="0.000"/>
+    <numFmt numFmtId="50055" formatCode="0.000"/>
+    <numFmt numFmtId="50056" formatCode="0.000"/>
+    <numFmt numFmtId="50057" formatCode="0.000"/>
+    <numFmt numFmtId="50058" formatCode="0.000"/>
+    <numFmt numFmtId="50059" formatCode="0.000"/>
+    <numFmt numFmtId="50060" formatCode="0.000"/>
+    <numFmt numFmtId="50061" formatCode="0.000"/>
+    <numFmt numFmtId="50062" formatCode="0.000"/>
+    <numFmt numFmtId="50063" formatCode="0.000"/>
+    <numFmt numFmtId="50064" formatCode="0.000"/>
+    <numFmt numFmtId="50065" formatCode="0.000"/>
+    <numFmt numFmtId="50066" formatCode="0.000"/>
+    <numFmt numFmtId="50067" formatCode="0.000"/>
+    <numFmt numFmtId="50068" formatCode="0.000"/>
+    <numFmt numFmtId="50069" formatCode="0.000"/>
+    <numFmt numFmtId="50070" formatCode="0.000"/>
+    <numFmt numFmtId="50071" formatCode="0.000"/>
+    <numFmt numFmtId="50072" formatCode="0.000"/>
+    <numFmt numFmtId="50073" formatCode="0.000"/>
+    <numFmt numFmtId="50074" formatCode="0.000"/>
+    <numFmt numFmtId="50075" formatCode="0.000"/>
+    <numFmt numFmtId="50076" formatCode="0.000"/>
+    <numFmt numFmtId="50077" formatCode="0.000"/>
+    <numFmt numFmtId="50078" formatCode="0.000"/>
+    <numFmt numFmtId="50079" formatCode="0.000"/>
+    <numFmt numFmtId="50080" formatCode="0.000"/>
+    <numFmt numFmtId="50081" formatCode="0.000"/>
+    <numFmt numFmtId="50082" formatCode="0.000"/>
+    <numFmt numFmtId="50083" formatCode="0.000"/>
+    <numFmt numFmtId="50084" formatCode="0.000"/>
+    <numFmt numFmtId="50085" formatCode="0.000"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -195,7 +495,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="center" vertical="top"/>
@@ -224,37 +524,253 @@
     <xf numFmtId="50003" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="50004" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="50004" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50005" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50006" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50007" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50008" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50009" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50010" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50011" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50012" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50013" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50014" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50015" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50016" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50017" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50018" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50019" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50020" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50021" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50022" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50023" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50024" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50025" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50026" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50027" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50028" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50029" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50030" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50031" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50032" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50033" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50034" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50035" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50036" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50037" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50038" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50039" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50040" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="50005" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50006" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50007" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50008" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50009" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50010" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50011" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50012" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50013" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="50041" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50042" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50043" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50044" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50045" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50046" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50047" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50048" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50049" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50050" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50051" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50052" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50053" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50054" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50055" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50056" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50057" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50058" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50059" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50060" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50061" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50062" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50063" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50064" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50065" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50066" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50067" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50068" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50069" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50070" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50071" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50072" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50073" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50074" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50075" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50076" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50077" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50078" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50079" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50080" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50081" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50082" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50083" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50084" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50085" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -561,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="C1" s="5"/>
     </row>
@@ -570,54 +1086,54 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="n">
-        <v>-0.039</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>13</v>
+        <v>1.516</v>
+      </c>
+      <c r="C2" s="52" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="n">
-        <v>0.026</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>14</v>
+      <c r="B3" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="53" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="n">
-        <v>-0.006</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>15</v>
+      <c r="B4" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="54" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="n">
-        <v>-0.034</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>16</v>
+      <c r="B5" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="55" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>17</v>
+      <c r="B6" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="56" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="7">
@@ -625,10 +1141,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="11" t="n">
-        <v>39</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>18</v>
+        <v>-2.494</v>
+      </c>
+      <c r="C7" s="57" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="8">
@@ -636,55 +1152,451 @@
         <v>7</v>
       </c>
       <c r="B8" s="12" t="n">
-        <v>0.094</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>18</v>
+        <v>-1.698</v>
+      </c>
+      <c r="C8" s="58" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="13" t="n">
-        <v>-0.013</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>18</v>
+      <c r="B9" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="59" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="14" t="n">
-        <v>0.877</v>
-      </c>
-      <c r="C10" s="21" t="s">
+      <c r="B10" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="60" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="61" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="16" t="n">
+        <v>-1.749</v>
+      </c>
+      <c r="C12" s="62" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="17" t="n">
+        <v>-1.367</v>
+      </c>
+      <c r="C13" s="63" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="18" t="n">
+        <v>-0.399</v>
+      </c>
+      <c r="C14" s="64" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="19" t="n">
+        <v>-1.012</v>
+      </c>
+      <c r="C15" s="65" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="20" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="C16" s="66" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="21" t="n">
+        <v>-1.088</v>
+      </c>
+      <c r="C17" s="67" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="22" t="n">
+        <v>-0.895</v>
+      </c>
+      <c r="C18" s="68" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="15" t="n">
-        <v>0.488</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
+      <c r="B19" s="23" t="n">
+        <v>-0.622</v>
+      </c>
+      <c r="C19" s="69" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="24" t="n">
+        <v>-0.906</v>
+      </c>
+      <c r="C20" s="70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="25" t="n">
+        <v>-0.738</v>
+      </c>
+      <c r="C21" s="71" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="26" t="n">
+        <v>-0.954</v>
+      </c>
+      <c r="C22" s="72" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="27" t="n">
+        <v>-0.891</v>
+      </c>
+      <c r="C23" s="73" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="28" t="n">
+        <v>-0.781</v>
+      </c>
+      <c r="C24" s="74" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="29" t="n">
+        <v>-0.73</v>
+      </c>
+      <c r="C25" s="75" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="30" t="n">
+        <v>-0.49</v>
+      </c>
+      <c r="C26" s="76" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="31" t="n">
+        <v>-0.478</v>
+      </c>
+      <c r="C27" s="77" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="32" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="C28" s="78" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="33" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="C29" s="79" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="34" t="n">
+        <v>-0.701</v>
+      </c>
+      <c r="C30" s="80" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="35" t="n">
+        <v>-0.805</v>
+      </c>
+      <c r="C31" s="81" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="36" t="n">
+        <v>-0.432</v>
+      </c>
+      <c r="C32" s="82" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="37" t="n">
+        <v>-1.006</v>
+      </c>
+      <c r="C33" s="83" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="38" t="n">
+        <v>-0.448</v>
+      </c>
+      <c r="C34" s="84" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="39" t="n">
+        <v>-0.825</v>
+      </c>
+      <c r="C35" s="85" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="40" t="n">
+        <v>0.413</v>
+      </c>
+      <c r="C36" s="86" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="41" t="n">
+        <v>0.401</v>
+      </c>
+      <c r="C37" s="87" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="42" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="C38" s="88" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="43" t="n">
+        <v>-0.054</v>
+      </c>
+      <c r="C39" s="89" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="44" t="n">
+        <v>0.212</v>
+      </c>
+      <c r="C40" s="90" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" s="45" t="n">
+        <v>0.197</v>
+      </c>
+      <c r="C41" s="91" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" s="46" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="C42" s="92" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" s="47" t="n">
+        <v>910</v>
+      </c>
+      <c r="C43" s="93" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" s="48" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="C44" s="93" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" s="49" t="n">
+        <v>0.189</v>
+      </c>
+      <c r="C45" s="93" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" s="50" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="C46" s="93" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="C47" s="94" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A48:C48"/>
     <mergeCell ref="B1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SD_ols1.xlsx
+++ b/SD_ols1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -20,22 +20,22 @@
     <t xml:space="preserve">(Intercept)</t>
   </si>
   <si>
-    <t xml:space="preserve">poly(GeoHHI, 2)1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poly(GeoHHI, 2)2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poly(StageHHI, 2)1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poly(StageHHI, 2)2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poly(PIGHHI, 2)1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poly(PIGHHI, 2)2</t>
+    <t xml:space="preserve">poly(Fund_GeoHHI, 2)1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poly(Fund_GeoHHI, 2)2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poly(Fund_StageHHI, 2)1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poly(Fund_StageHHI, 2)2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poly(Fund_PIGHHI, 2)1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poly(Fund_PIGHHI, 2)2</t>
   </si>
   <si>
     <t xml:space="preserve">Operating_Years</t>
@@ -161,139 +161,121 @@
     <t xml:space="preserve">(1)</t>
   </si>
   <si>
-    <t xml:space="preserve">10.501 ***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.730 ***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.399 ***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.780 ***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.070 ***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.002 ** </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.937)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(2.053)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(2.161)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(2.389)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(2.297)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(2.711)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(2.245)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.012)</t>
+    <t xml:space="preserve">25.642 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.049 ** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.002 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(2.045)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(2.354)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(2.790)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(4.171)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3.626)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(7.695)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(9.262)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.017)</t>
   </si>
   <si>
     <t xml:space="preserve">(0.001)</t>
   </si>
   <si>
-    <t xml:space="preserve">(2.668)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(2.311)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(2.332)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(2.330)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(2.336)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(2.687)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(2.018)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.996)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.983)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.988)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.949)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.975)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.952)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.942)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.944)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.930)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.925)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.922)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.921)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.932)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.934)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.943)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.935)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.963)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.967)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.993)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(2.008)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(2.139)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(2.097)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(2.048)</t>
+    <t xml:space="preserve">(2.861)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(2.479)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(2.478)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(2.483)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(2.148)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(2.123)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(2.107)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(2.114)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(2.071)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(2.090)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(2.074)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(2.067)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(2.062)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(2.050)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(2.041)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(2.039)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(2.034)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(2.044)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(2.047)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(2.054)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(2.046)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(2.063)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(2.080)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(2.103)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(2.262)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(2.217)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(2.163)</t>
   </si>
   <si>
     <t xml:space="preserve">     </t>
@@ -1086,21 +1068,21 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="n">
-        <v>1.516</v>
+        <v>2.768</v>
       </c>
       <c r="C2" s="52" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>49</v>
+      <c r="B3" s="7" t="n">
+        <v>0.333</v>
       </c>
       <c r="C3" s="53" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4">
@@ -1108,32 +1090,32 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" s="54" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>51</v>
+      <c r="B5" s="9" t="n">
+        <v>0.043</v>
       </c>
       <c r="C5" s="55" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>52</v>
+      <c r="B6" s="10" t="n">
+        <v>-3.018</v>
       </c>
       <c r="C6" s="56" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7">
@@ -1141,10 +1123,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="11" t="n">
-        <v>-2.494</v>
+        <v>2.299</v>
       </c>
       <c r="C7" s="57" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8">
@@ -1152,10 +1134,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="12" t="n">
-        <v>-1.698</v>
+        <v>4.675</v>
       </c>
       <c r="C8" s="58" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9">
@@ -1163,10 +1145,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C9" s="59" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10">
@@ -1174,10 +1156,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C10" s="60" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11">
@@ -1188,7 +1170,7 @@
         <v>0</v>
       </c>
       <c r="C11" s="61" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12">
@@ -1196,10 +1178,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="16" t="n">
-        <v>-1.749</v>
+        <v>-1.947</v>
       </c>
       <c r="C12" s="62" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13">
@@ -1207,10 +1189,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="17" t="n">
-        <v>-1.367</v>
+        <v>-1.598</v>
       </c>
       <c r="C13" s="63" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14">
@@ -1218,10 +1200,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="18" t="n">
-        <v>-0.399</v>
+        <v>-0.373</v>
       </c>
       <c r="C14" s="64" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15">
@@ -1229,10 +1211,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="19" t="n">
-        <v>-1.012</v>
+        <v>-1.617</v>
       </c>
       <c r="C15" s="65" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16">
@@ -1240,10 +1222,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="20" t="n">
-        <v>0.058</v>
+        <v>0</v>
       </c>
       <c r="C16" s="66" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17">
@@ -1251,10 +1233,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="21" t="n">
-        <v>-1.088</v>
+        <v>-1.311</v>
       </c>
       <c r="C17" s="67" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18">
@@ -1262,10 +1244,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="22" t="n">
-        <v>-0.895</v>
+        <v>-1.495</v>
       </c>
       <c r="C18" s="68" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19">
@@ -1273,10 +1255,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="23" t="n">
-        <v>-0.622</v>
+        <v>-1.045</v>
       </c>
       <c r="C19" s="69" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20">
@@ -1284,10 +1266,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="24" t="n">
-        <v>-0.906</v>
+        <v>-1.511</v>
       </c>
       <c r="C20" s="70" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21">
@@ -1295,10 +1277,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="25" t="n">
-        <v>-0.738</v>
+        <v>-1.33</v>
       </c>
       <c r="C21" s="71" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22">
@@ -1306,10 +1288,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="26" t="n">
-        <v>-0.954</v>
+        <v>-1.615</v>
       </c>
       <c r="C22" s="72" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23">
@@ -1317,10 +1299,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="27" t="n">
-        <v>-0.891</v>
+        <v>-1.709</v>
       </c>
       <c r="C23" s="73" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24">
@@ -1328,10 +1310,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="28" t="n">
-        <v>-0.781</v>
+        <v>-1.688</v>
       </c>
       <c r="C24" s="74" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25">
@@ -1339,10 +1321,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="29" t="n">
-        <v>-0.73</v>
+        <v>-1.666</v>
       </c>
       <c r="C25" s="75" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26">
@@ -1350,10 +1332,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="30" t="n">
-        <v>-0.49</v>
+        <v>-1.36</v>
       </c>
       <c r="C26" s="76" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27">
@@ -1361,10 +1343,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="31" t="n">
-        <v>-0.478</v>
+        <v>-1.646</v>
       </c>
       <c r="C27" s="77" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28">
@@ -1372,10 +1354,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="32" t="n">
-        <v>0.17</v>
+        <v>-0.755</v>
       </c>
       <c r="C28" s="78" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29">
@@ -1383,10 +1365,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="33" t="n">
-        <v>0.004</v>
+        <v>-0.934</v>
       </c>
       <c r="C29" s="79" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30">
@@ -1394,10 +1376,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="34" t="n">
-        <v>-0.701</v>
+        <v>-1.319</v>
       </c>
       <c r="C30" s="80" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31">
@@ -1405,10 +1387,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="35" t="n">
-        <v>-0.805</v>
+        <v>-1.483</v>
       </c>
       <c r="C31" s="81" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32">
@@ -1416,10 +1398,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="36" t="n">
-        <v>-0.432</v>
+        <v>-0.953</v>
       </c>
       <c r="C32" s="82" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33">
@@ -1427,10 +1409,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="37" t="n">
-        <v>-1.006</v>
+        <v>-1.924</v>
       </c>
       <c r="C33" s="83" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34">
@@ -1438,10 +1420,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="38" t="n">
-        <v>-0.448</v>
+        <v>-1.355</v>
       </c>
       <c r="C34" s="84" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35">
@@ -1449,10 +1431,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="39" t="n">
-        <v>-0.825</v>
+        <v>-2.018</v>
       </c>
       <c r="C35" s="85" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36">
@@ -1460,10 +1442,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="40" t="n">
-        <v>0.413</v>
+        <v>-1.03</v>
       </c>
       <c r="C36" s="86" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37">
@@ -1471,10 +1453,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="41" t="n">
-        <v>0.401</v>
+        <v>-1.267</v>
       </c>
       <c r="C37" s="87" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38">
@@ -1482,10 +1464,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="42" t="n">
-        <v>0.33</v>
+        <v>-1.296</v>
       </c>
       <c r="C38" s="88" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39">
@@ -1493,10 +1475,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="43" t="n">
-        <v>-0.054</v>
+        <v>-1.607</v>
       </c>
       <c r="C39" s="89" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40">
@@ -1504,10 +1486,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="44" t="n">
-        <v>0.212</v>
+        <v>-1.684</v>
       </c>
       <c r="C40" s="90" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41">
@@ -1515,10 +1497,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="45" t="n">
-        <v>0.197</v>
+        <v>-1.689</v>
       </c>
       <c r="C41" s="91" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42">
@@ -1526,10 +1508,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="46" t="n">
-        <v>0.17</v>
+        <v>-1.69</v>
       </c>
       <c r="C42" s="92" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43">
@@ -1537,10 +1519,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="47" t="n">
-        <v>910</v>
+        <v>937</v>
       </c>
       <c r="C43" s="93" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44">
@@ -1548,10 +1530,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="48" t="n">
-        <v>0.225</v>
+        <v>0.143</v>
       </c>
       <c r="C44" s="93" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="45">
@@ -1559,10 +1541,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="49" t="n">
-        <v>0.189</v>
+        <v>0.105</v>
       </c>
       <c r="C45" s="93" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="46">
@@ -1570,10 +1552,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="50" t="n">
-        <v>6.3</v>
+        <v>3.731</v>
       </c>
       <c r="C46" s="93" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="47">
@@ -1584,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="C47" s="94" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="48">
